--- a/tests/databooks/progbook_hypertension_dyn.xlsx
+++ b/tests/databooks/progbook_hypertension_dyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{014B0DA8-F65C-B74F-845C-6E58487AA0DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C92A9021-A777-9147-9E82-8BDA982571D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23580" windowHeight="14000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Annual number screened</t>
-  </si>
-  <si>
     <t>Baseline value</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Best</t>
+  </si>
+  <si>
+    <t>Proportion screened</t>
   </si>
 </sst>
 </file>
@@ -236,412 +236,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="431">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="380">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -5828,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5886,10 +5481,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
@@ -5898,16 +5493,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>14</v>
@@ -5924,16 +5519,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -5942,10 +5537,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>14</v>
@@ -5962,22 +5557,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>14</v>
@@ -5986,7 +5581,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>14</v>
@@ -6000,22 +5595,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
@@ -6027,7 +5622,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>14</v>
@@ -6038,22 +5633,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
@@ -6068,260 +5663,260 @@
         <v>14</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="410" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="409" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="408" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="70" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="407" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="80" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="406" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="90" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6338,8 +5933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6857,202 +6452,202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="380" priority="13">
+    <cfRule type="expression" dxfId="329" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="14">
+    <cfRule type="expression" dxfId="328" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="378" priority="15">
+    <cfRule type="expression" dxfId="327" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="16">
+    <cfRule type="expression" dxfId="326" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="376" priority="17">
+    <cfRule type="expression" dxfId="325" priority="17">
       <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="18">
+    <cfRule type="expression" dxfId="324" priority="18">
       <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="374" priority="19">
+    <cfRule type="expression" dxfId="323" priority="19">
       <formula>COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="20">
+    <cfRule type="expression" dxfId="322" priority="20">
       <formula>AND(COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="372" priority="21">
+    <cfRule type="expression" dxfId="321" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="22">
+    <cfRule type="expression" dxfId="320" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="370" priority="23">
+    <cfRule type="expression" dxfId="319" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="24">
+    <cfRule type="expression" dxfId="318" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="368" priority="25">
+    <cfRule type="expression" dxfId="317" priority="25">
       <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="26">
+    <cfRule type="expression" dxfId="316" priority="26">
       <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="366" priority="27">
+    <cfRule type="expression" dxfId="315" priority="27">
       <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="28">
+    <cfRule type="expression" dxfId="314" priority="28">
       <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="364" priority="1">
+    <cfRule type="expression" dxfId="313" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="2">
+    <cfRule type="expression" dxfId="312" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="362" priority="29">
+    <cfRule type="expression" dxfId="311" priority="29">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="30">
+    <cfRule type="expression" dxfId="310" priority="30">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="360" priority="31">
+    <cfRule type="expression" dxfId="309" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="32">
+    <cfRule type="expression" dxfId="308" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="358" priority="33">
+    <cfRule type="expression" dxfId="307" priority="33">
       <formula>COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="34">
+    <cfRule type="expression" dxfId="306" priority="34">
       <formula>AND(COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="356" priority="35">
+    <cfRule type="expression" dxfId="305" priority="35">
       <formula>COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="36">
+    <cfRule type="expression" dxfId="304" priority="36">
       <formula>AND(COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="354" priority="37">
+    <cfRule type="expression" dxfId="303" priority="37">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="38">
+    <cfRule type="expression" dxfId="302" priority="38">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="352" priority="39">
+    <cfRule type="expression" dxfId="301" priority="39">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="40">
+    <cfRule type="expression" dxfId="300" priority="40">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="350" priority="3">
+    <cfRule type="expression" dxfId="299" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="4">
+    <cfRule type="expression" dxfId="298" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="348" priority="41">
+    <cfRule type="expression" dxfId="297" priority="41">
       <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="42">
+    <cfRule type="expression" dxfId="296" priority="42">
       <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="346" priority="43">
+    <cfRule type="expression" dxfId="295" priority="43">
       <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="44">
+    <cfRule type="expression" dxfId="294" priority="44">
       <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="344" priority="45">
+    <cfRule type="expression" dxfId="293" priority="45">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="46">
+    <cfRule type="expression" dxfId="292" priority="46">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="342" priority="47">
+    <cfRule type="expression" dxfId="291" priority="47">
       <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="48">
+    <cfRule type="expression" dxfId="290" priority="48">
       <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="340" priority="49">
+    <cfRule type="expression" dxfId="289" priority="49">
       <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="50">
+    <cfRule type="expression" dxfId="288" priority="50">
       <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="338" priority="5">
+    <cfRule type="expression" dxfId="287" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="6">
+    <cfRule type="expression" dxfId="286" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="336" priority="7">
+    <cfRule type="expression" dxfId="285" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="8">
+    <cfRule type="expression" dxfId="284" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="334" priority="9">
+    <cfRule type="expression" dxfId="283" priority="9">
       <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="10">
+    <cfRule type="expression" dxfId="282" priority="10">
       <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="332" priority="11">
+    <cfRule type="expression" dxfId="281" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="12">
+    <cfRule type="expression" dxfId="280" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7064,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7078,16 +6673,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -7122,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -7145,10 +6740,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
@@ -7168,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="5">
@@ -7191,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5">
@@ -7207,16 +6802,16 @@
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
@@ -7251,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
@@ -7274,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
@@ -7297,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="6">
@@ -7320,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="6">
@@ -7336,16 +6931,16 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -7380,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
@@ -7403,10 +6998,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
@@ -7426,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="7">
@@ -7449,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="5"/>
       <c r="G17" s="7">
@@ -7465,16 +7060,16 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>15</v>
@@ -7509,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
@@ -7532,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
@@ -7555,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
@@ -7578,10 +7173,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
@@ -7594,16 +7189,16 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -7638,10 +7233,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
@@ -7661,10 +7256,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
@@ -7684,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
@@ -7707,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
@@ -7723,34 +7318,34 @@
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -7761,10 +7356,10 @@
         <v>0.15</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E32" s="5"/>
       <c r="G32" s="5"/>
@@ -7783,10 +7378,10 @@
         <v>0.15</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E33" s="5"/>
       <c r="G33" s="5"/>
@@ -7805,10 +7400,10 @@
         <v>0.15</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
@@ -7827,10 +7422,10 @@
         <v>0.15</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
@@ -7843,34 +7438,34 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -7881,10 +7476,10 @@
         <v>0.2</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E38" s="5"/>
       <c r="G38" s="5"/>
@@ -7903,10 +7498,10 @@
         <v>0.2</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E39" s="5"/>
       <c r="G39" s="5"/>
@@ -7925,10 +7520,10 @@
         <v>0.2</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E40" s="5"/>
       <c r="G40" s="5"/>
@@ -7947,10 +7542,10 @@
         <v>0.2</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E41" s="5"/>
       <c r="G41" s="5"/>

--- a/tests/databooks/progbook_hypertension_dyn.xlsx
+++ b/tests/databooks/progbook_hypertension_dyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C92A9021-A777-9147-9E82-8BDA982571D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF567A8A-3286-E94A-ADA1-642BBF34D9EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23580" windowHeight="14000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22860" windowHeight="14000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>Best</t>
   </si>
   <si>
-    <t>Proportion screened</t>
+    <t>Screening coverage shares</t>
   </si>
 </sst>
 </file>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5">
-        <v>21500</v>
+        <v>210515</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -6041,7 +6041,8 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>298.61111111111109</v>
+        <f>F2/F3</f>
+        <v>42103</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -6082,7 +6083,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>32500</v>
+        <v>49290</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -6098,7 +6099,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>108</v>
+        <v>7.5</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -6142,7 +6143,8 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>300.92592592592598</v>
+        <f>F9/F10</f>
+        <v>6572</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -6659,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6725,7 +6727,8 @@
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5">
-        <v>1</v>
+        <f>4066/SUM(4066,2506)*2</f>
+        <v>1.2373706634205721</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -6748,7 +6751,8 @@
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
-        <v>1</v>
+        <f>2506/SUM(4066,2506)*2</f>
+        <v>0.76262933657942789</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6770,7 +6774,8 @@
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="5">
-        <v>1</v>
+        <f>22773/SUM(19330,22773)*2</f>
+        <v>1.0817756454409424</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6793,7 +6798,8 @@
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5">
-        <v>1</v>
+        <f>19330/SUM(19330,22773)*2</f>
+        <v>0.9182243545590576</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -7570,7 +7576,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-00003D000000}">
+          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-00003D000000}">
             <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7580,7 +7586,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-00003E000000}">
+          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-00003E000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7609,7 +7615,7 @@
           <xm:sqref>G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-000047000000}">
+          <x14:cfRule type="expression" priority="79" id="{00000000-000E-0000-0200-000047000000}">
             <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7619,7 +7625,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-000048000000}">
+          <x14:cfRule type="expression" priority="80" id="{00000000-000E-0000-0200-000048000000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7648,7 +7654,7 @@
           <xm:sqref>G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-000051000000}">
+          <x14:cfRule type="expression" priority="89" id="{00000000-000E-0000-0200-000051000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7658,7 +7664,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000052000000}">
+          <x14:cfRule type="expression" priority="90" id="{00000000-000E-0000-0200-000052000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7687,7 +7693,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="97" id="{00000000-000E-0000-0200-00005B000000}">
+          <x14:cfRule type="expression" priority="99" id="{00000000-000E-0000-0200-00005B000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7697,7 +7703,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="98" id="{00000000-000E-0000-0200-00005C000000}">
+          <x14:cfRule type="expression" priority="100" id="{00000000-000E-0000-0200-00005C000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7726,7 +7732,7 @@
           <xm:sqref>G15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000001000000}">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000001000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7736,7 +7742,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000002000000}">
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-000002000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7765,7 +7771,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="127" id="{00000000-000E-0000-0200-000079000000}">
+          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000079000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7775,7 +7781,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="128" id="{00000000-000E-0000-0200-00007A000000}">
+          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-00007A000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7804,7 +7810,7 @@
           <xm:sqref>G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000083000000}">
+          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-000083000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7814,7 +7820,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-000084000000}">
+          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-000084000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7843,7 +7849,7 @@
           <xm:sqref>G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="147" id="{00000000-000E-0000-0200-00008D000000}">
+          <x14:cfRule type="expression" priority="149" id="{00000000-000E-0000-0200-00008D000000}">
             <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7853,7 +7859,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="148" id="{00000000-000E-0000-0200-00008E000000}">
+          <x14:cfRule type="expression" priority="150" id="{00000000-000E-0000-0200-00008E000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7882,7 +7888,7 @@
           <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="157" id="{00000000-000E-0000-0200-000097000000}">
+          <x14:cfRule type="expression" priority="159" id="{00000000-000E-0000-0200-000097000000}">
             <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7892,7 +7898,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="158" id="{00000000-000E-0000-0200-000098000000}">
+          <x14:cfRule type="expression" priority="160" id="{00000000-000E-0000-0200-000098000000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7921,7 +7927,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="167" id="{00000000-000E-0000-0200-0000A1000000}">
+          <x14:cfRule type="expression" priority="169" id="{00000000-000E-0000-0200-0000A1000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7931,7 +7937,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="168" id="{00000000-000E-0000-0200-0000A2000000}">
+          <x14:cfRule type="expression" priority="170" id="{00000000-000E-0000-0200-0000A2000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7960,7 +7966,7 @@
           <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="177" id="{00000000-000E-0000-0200-0000AB000000}">
+          <x14:cfRule type="expression" priority="179" id="{00000000-000E-0000-0200-0000AB000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</xm:f>
             <x14:dxf>
               <fill>
@@ -7970,7 +7976,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="178" id="{00000000-000E-0000-0200-0000AC000000}">
+          <x14:cfRule type="expression" priority="180" id="{00000000-000E-0000-0200-0000AC000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7999,7 +8005,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="187" id="{00000000-000E-0000-0200-0000B5000000}">
+          <x14:cfRule type="expression" priority="189" id="{00000000-000E-0000-0200-0000B5000000}">
             <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8009,7 +8015,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="188" id="{00000000-000E-0000-0200-0000B6000000}">
+          <x14:cfRule type="expression" priority="190" id="{00000000-000E-0000-0200-0000B6000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8038,7 +8044,7 @@
           <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="197" id="{00000000-000E-0000-0200-0000BF000000}">
+          <x14:cfRule type="expression" priority="199" id="{00000000-000E-0000-0200-0000BF000000}">
             <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8048,7 +8054,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="198" id="{00000000-000E-0000-0200-0000C0000000}">
+          <x14:cfRule type="expression" priority="200" id="{00000000-000E-0000-0200-0000C0000000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8077,7 +8083,7 @@
           <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-00000B000000}">
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-00000B000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8087,7 +8093,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-00000C000000}">
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-00000C000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8116,7 +8122,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="207" id="{00000000-000E-0000-0200-0000C9000000}">
+          <x14:cfRule type="expression" priority="209" id="{00000000-000E-0000-0200-0000C9000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G32)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8126,7 +8132,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="208" id="{00000000-000E-0000-0200-0000CA000000}">
+          <x14:cfRule type="expression" priority="210" id="{00000000-000E-0000-0200-0000CA000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8155,7 +8161,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="217" id="{00000000-000E-0000-0200-0000D3000000}">
+          <x14:cfRule type="expression" priority="219" id="{00000000-000E-0000-0200-0000D3000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G33)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8165,7 +8171,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="218" id="{00000000-000E-0000-0200-0000D4000000}">
+          <x14:cfRule type="expression" priority="220" id="{00000000-000E-0000-0200-0000D4000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8194,7 +8200,7 @@
           <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="227" id="{00000000-000E-0000-0200-0000DD000000}">
+          <x14:cfRule type="expression" priority="229" id="{00000000-000E-0000-0200-0000DD000000}">
             <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G34)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8204,7 +8210,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="228" id="{00000000-000E-0000-0200-0000DE000000}">
+          <x14:cfRule type="expression" priority="230" id="{00000000-000E-0000-0200-0000DE000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8233,7 +8239,7 @@
           <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="237" id="{00000000-000E-0000-0200-0000E7000000}">
+          <x14:cfRule type="expression" priority="239" id="{00000000-000E-0000-0200-0000E7000000}">
             <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G35)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8243,7 +8249,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="238" id="{00000000-000E-0000-0200-0000E8000000}">
+          <x14:cfRule type="expression" priority="240" id="{00000000-000E-0000-0200-0000E8000000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8272,7 +8278,7 @@
           <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="247" id="{00000000-000E-0000-0200-0000F1000000}">
+          <x14:cfRule type="expression" priority="249" id="{00000000-000E-0000-0200-0000F1000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G38)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8282,7 +8288,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="248" id="{00000000-000E-0000-0200-0000F2000000}">
+          <x14:cfRule type="expression" priority="250" id="{00000000-000E-0000-0200-0000F2000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8311,7 +8317,7 @@
           <xm:sqref>G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="257" id="{00000000-000E-0000-0200-0000FB000000}">
+          <x14:cfRule type="expression" priority="259" id="{00000000-000E-0000-0200-0000FB000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G39)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8321,7 +8327,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="258" id="{00000000-000E-0000-0200-0000FC000000}">
+          <x14:cfRule type="expression" priority="260" id="{00000000-000E-0000-0200-0000FC000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8350,7 +8356,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-000015000000}">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-000015000000}">
             <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8360,7 +8366,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-000016000000}">
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-000016000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8389,7 +8395,7 @@
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="267" id="{00000000-000E-0000-0200-000005010000}">
+          <x14:cfRule type="expression" priority="269" id="{00000000-000E-0000-0200-000005010000}">
             <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G40)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8399,7 +8405,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="268" id="{00000000-000E-0000-0200-000006010000}">
+          <x14:cfRule type="expression" priority="270" id="{00000000-000E-0000-0200-000006010000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8428,7 +8434,7 @@
           <xm:sqref>G40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="277" id="{00000000-000E-0000-0200-00000F010000}">
+          <x14:cfRule type="expression" priority="279" id="{00000000-000E-0000-0200-00000F010000}">
             <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G41)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8438,7 +8444,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="278" id="{00000000-000E-0000-0200-000010010000}">
+          <x14:cfRule type="expression" priority="280" id="{00000000-000E-0000-0200-000010010000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8467,7 +8473,7 @@
           <xm:sqref>G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-00001F000000}">
+          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-00001F000000}">
             <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8477,7 +8483,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000020000000}">
+          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000020000000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8506,7 +8512,7 @@
           <xm:sqref>G5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-000029000000}">
+          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000029000000}">
             <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8516,7 +8522,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-00002A000000}">
+          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-00002A000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8545,7 +8551,7 @@
           <xm:sqref>G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000033000000}">
+          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-000033000000}">
             <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8555,7 +8561,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-000034000000}">
+          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-000034000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8584,7 +8590,7 @@
           <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-00003F000000}">
+          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-00003F000000}">
             <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8594,7 +8600,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-000040000000}">
+          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000040000000}">
             <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8623,7 +8629,7 @@
           <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="79" id="{00000000-000E-0000-0200-000049000000}">
+          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-000049000000}">
             <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8633,7 +8639,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="80" id="{00000000-000E-0000-0200-00004A000000}">
+          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-00004A000000}">
             <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8662,7 +8668,7 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="89" id="{00000000-000E-0000-0200-000053000000}">
+          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-000053000000}">
             <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8672,7 +8678,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="90" id="{00000000-000E-0000-0200-000054000000}">
+          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-000054000000}">
             <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8701,7 +8707,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="109" id="{00000000-000E-0000-0200-000067000000}">
+          <x14:cfRule type="expression" priority="111" id="{00000000-000E-0000-0200-000067000000}">
             <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8711,7 +8717,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="110" id="{00000000-000E-0000-0200-000068000000}">
+          <x14:cfRule type="expression" priority="112" id="{00000000-000E-0000-0200-000068000000}">
             <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8740,7 +8746,7 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="119" id="{00000000-000E-0000-0200-000071000000}">
+          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000071000000}">
             <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8750,7 +8756,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="120" id="{00000000-000E-0000-0200-000072000000}">
+          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-000072000000}">
             <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8779,7 +8785,7 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000003000000}">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-000003000000}">
             <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8789,7 +8795,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-000004000000}">
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-000004000000}">
             <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8818,7 +8824,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-00007B000000}">
+          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-00007B000000}">
             <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8828,7 +8834,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-00007C000000}">
+          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-00007C000000}">
             <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8857,7 +8863,7 @@
           <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-000085000000}">
+          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-000085000000}">
             <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8867,7 +8873,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-000086000000}">
+          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-000086000000}">
             <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8896,7 +8902,7 @@
           <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="149" id="{00000000-000E-0000-0200-00008F000000}">
+          <x14:cfRule type="expression" priority="151" id="{00000000-000E-0000-0200-00008F000000}">
             <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8906,7 +8912,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="150" id="{00000000-000E-0000-0200-000090000000}">
+          <x14:cfRule type="expression" priority="152" id="{00000000-000E-0000-0200-000090000000}">
             <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8935,7 +8941,7 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="159" id="{00000000-000E-0000-0200-000099000000}">
+          <x14:cfRule type="expression" priority="161" id="{00000000-000E-0000-0200-000099000000}">
             <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8945,7 +8951,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="160" id="{00000000-000E-0000-0200-00009A000000}">
+          <x14:cfRule type="expression" priority="162" id="{00000000-000E-0000-0200-00009A000000}">
             <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8974,7 +8980,7 @@
           <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="169" id="{00000000-000E-0000-0200-0000A3000000}">
+          <x14:cfRule type="expression" priority="171" id="{00000000-000E-0000-0200-0000A3000000}">
             <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</xm:f>
             <x14:dxf>
               <fill>
@@ -8984,7 +8990,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="170" id="{00000000-000E-0000-0200-0000A4000000}">
+          <x14:cfRule type="expression" priority="172" id="{00000000-000E-0000-0200-0000A4000000}">
             <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9013,7 +9019,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="179" id="{00000000-000E-0000-0200-0000AD000000}">
+          <x14:cfRule type="expression" priority="181" id="{00000000-000E-0000-0200-0000AD000000}">
             <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</xm:f>
             <x14:dxf>
               <fill>
@@ -9023,7 +9029,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="180" id="{00000000-000E-0000-0200-0000AE000000}">
+          <x14:cfRule type="expression" priority="182" id="{00000000-000E-0000-0200-0000AE000000}">
             <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9052,7 +9058,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="189" id="{00000000-000E-0000-0200-0000B7000000}">
+          <x14:cfRule type="expression" priority="191" id="{00000000-000E-0000-0200-0000B7000000}">
             <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</xm:f>
             <x14:dxf>
               <fill>
@@ -9062,7 +9068,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="190" id="{00000000-000E-0000-0200-0000B8000000}">
+          <x14:cfRule type="expression" priority="192" id="{00000000-000E-0000-0200-0000B8000000}">
             <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9091,7 +9097,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="199" id="{00000000-000E-0000-0200-0000C1000000}">
+          <x14:cfRule type="expression" priority="201" id="{00000000-000E-0000-0200-0000C1000000}">
             <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</xm:f>
             <x14:dxf>
               <fill>
@@ -9101,7 +9107,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="200" id="{00000000-000E-0000-0200-0000C2000000}">
+          <x14:cfRule type="expression" priority="202" id="{00000000-000E-0000-0200-0000C2000000}">
             <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9130,17 +9136,56 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-00000D000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-00000E000000}">
+          <x14:cfRule type="expression" priority="211" id="{00000000-000E-0000-0200-0000CB000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H32)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="212" id="{00000000-000E-0000-0200-0000CC000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="221" id="{00000000-000E-0000-0200-0000D5000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H33)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="222" id="{00000000-000E-0000-0200-0000D6000000}">
             <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9166,3868 +9211,3829 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="231" id="{00000000-000E-0000-0200-0000DF000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H34)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="232" id="{00000000-000E-0000-0200-0000E0000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="241" id="{00000000-000E-0000-0200-0000E9000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H35)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="242" id="{00000000-000E-0000-0200-0000EA000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="251" id="{00000000-000E-0000-0200-0000F3000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H38)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="252" id="{00000000-000E-0000-0200-0000F4000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="261" id="{00000000-000E-0000-0200-0000FD000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H39)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="262" id="{00000000-000E-0000-0200-0000FE000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="271" id="{00000000-000E-0000-0200-000007010000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H40)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="272" id="{00000000-000E-0000-0200-000008010000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="281" id="{00000000-000E-0000-0200-000011010000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H41)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="282" id="{00000000-000E-0000-0200-000012010000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-00002B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-00002C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-000035000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-000036000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000041000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-000042000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-00004B000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-00004C000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="93" id="{00000000-000E-0000-0200-000055000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="94" id="{00000000-000E-0000-0200-000056000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="103" id="{00000000-000E-0000-0200-00005F000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="104" id="{00000000-000E-0000-0200-000060000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-000069000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-00006A000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-000073000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-000074000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-00007D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-00007E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="143" id="{00000000-000E-0000-0200-000087000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="144" id="{00000000-000E-0000-0200-000088000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="153" id="{00000000-000E-0000-0200-000091000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="154" id="{00000000-000E-0000-0200-000092000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="163" id="{00000000-000E-0000-0200-00009B000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="164" id="{00000000-000E-0000-0200-00009C000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="173" id="{00000000-000E-0000-0200-0000A5000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="174" id="{00000000-000E-0000-0200-0000A6000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="183" id="{00000000-000E-0000-0200-0000AF000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="184" id="{00000000-000E-0000-0200-0000B0000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="193" id="{00000000-000E-0000-0200-0000B9000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="194" id="{00000000-000E-0000-0200-0000BA000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="203" id="{00000000-000E-0000-0200-0000C3000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="204" id="{00000000-000E-0000-0200-0000C4000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="213" id="{00000000-000E-0000-0200-0000CD000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I32)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="214" id="{00000000-000E-0000-0200-0000CE000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="223" id="{00000000-000E-0000-0200-0000D7000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I33)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="224" id="{00000000-000E-0000-0200-0000D8000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="233" id="{00000000-000E-0000-0200-0000E1000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I34)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="234" id="{00000000-000E-0000-0200-0000E2000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="243" id="{00000000-000E-0000-0200-0000EB000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I35)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="244" id="{00000000-000E-0000-0200-0000EC000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="253" id="{00000000-000E-0000-0200-0000F5000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I38)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="254" id="{00000000-000E-0000-0200-0000F6000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="263" id="{00000000-000E-0000-0200-0000FF000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I39)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="264" id="{00000000-000E-0000-0200-000000010000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="273" id="{00000000-000E-0000-0200-000009010000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I40)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="274" id="{00000000-000E-0000-0200-00000A010000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="283" id="{00000000-000E-0000-0200-000013010000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I41)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="284" id="{00000000-000E-0000-0200-000014010000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-00002D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-00002E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-000037000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-000038000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-000043000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-000044000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-00004D000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-00004E000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="95" id="{00000000-000E-0000-0200-000057000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="96" id="{00000000-000E-0000-0200-000058000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000061000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-000062000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-00006B000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-00006C000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="125" id="{00000000-000E-0000-0200-000075000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="126" id="{00000000-000E-0000-0200-000076000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-00007F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000080000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="145" id="{00000000-000E-0000-0200-000089000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="146" id="{00000000-000E-0000-0200-00008A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="155" id="{00000000-000E-0000-0200-000093000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="156" id="{00000000-000E-0000-0200-000094000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="165" id="{00000000-000E-0000-0200-00009D000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="166" id="{00000000-000E-0000-0200-00009E000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="175" id="{00000000-000E-0000-0200-0000A7000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="176" id="{00000000-000E-0000-0200-0000A8000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="185" id="{00000000-000E-0000-0200-0000B1000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="186" id="{00000000-000E-0000-0200-0000B2000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="195" id="{00000000-000E-0000-0200-0000BB000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="196" id="{00000000-000E-0000-0200-0000BC000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="205" id="{00000000-000E-0000-0200-0000C5000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="206" id="{00000000-000E-0000-0200-0000C6000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="215" id="{00000000-000E-0000-0200-0000CF000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J32)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="216" id="{00000000-000E-0000-0200-0000D0000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="225" id="{00000000-000E-0000-0200-0000D9000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J33)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="226" id="{00000000-000E-0000-0200-0000DA000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="235" id="{00000000-000E-0000-0200-0000E3000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J34)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="236" id="{00000000-000E-0000-0200-0000E4000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="245" id="{00000000-000E-0000-0200-0000ED000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J35)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="246" id="{00000000-000E-0000-0200-0000EE000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="255" id="{00000000-000E-0000-0200-0000F7000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J38)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="256" id="{00000000-000E-0000-0200-0000F8000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="265" id="{00000000-000E-0000-0200-000001010000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J39)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="266" id="{00000000-000E-0000-0200-000002010000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="275" id="{00000000-000E-0000-0200-00000B010000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J40)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="276" id="{00000000-000E-0000-0200-00000C010000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="285" id="{00000000-000E-0000-0200-000015010000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J41)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="286" id="{00000000-000E-0000-0200-000016010000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-00002F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000030000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000039000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-00003A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-000045000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-000046000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-00004F000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000050000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="97" id="{00000000-000E-0000-0200-000059000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="98" id="{00000000-000E-0000-0200-00005A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="107" id="{00000000-000E-0000-0200-000063000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="108" id="{00000000-000E-0000-0200-000064000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="117" id="{00000000-000E-0000-0200-00006D000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="118" id="{00000000-000E-0000-0200-00006E000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="127" id="{00000000-000E-0000-0200-000077000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="128" id="{00000000-000E-0000-0200-000078000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000081000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-000082000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="147" id="{00000000-000E-0000-0200-00008B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="148" id="{00000000-000E-0000-0200-00008C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="157" id="{00000000-000E-0000-0200-000095000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="158" id="{00000000-000E-0000-0200-000096000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="167" id="{00000000-000E-0000-0200-00009F000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="168" id="{00000000-000E-0000-0200-0000A0000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="177" id="{00000000-000E-0000-0200-0000A9000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="178" id="{00000000-000E-0000-0200-0000AA000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="187" id="{00000000-000E-0000-0200-0000B3000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="188" id="{00000000-000E-0000-0200-0000B4000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="197" id="{00000000-000E-0000-0200-0000BD000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="198" id="{00000000-000E-0000-0200-0000BE000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="207" id="{00000000-000E-0000-0200-0000C7000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="208" id="{00000000-000E-0000-0200-0000C8000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="217" id="{00000000-000E-0000-0200-0000D1000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K32)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="218" id="{00000000-000E-0000-0200-0000D2000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="227" id="{00000000-000E-0000-0200-0000DB000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K33)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="228" id="{00000000-000E-0000-0200-0000DC000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="237" id="{00000000-000E-0000-0200-0000E5000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K34)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="238" id="{00000000-000E-0000-0200-0000E6000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="247" id="{00000000-000E-0000-0200-0000EF000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K35)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="248" id="{00000000-000E-0000-0200-0000F0000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="257" id="{00000000-000E-0000-0200-0000F9000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K38)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="258" id="{00000000-000E-0000-0200-0000FA000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="267" id="{00000000-000E-0000-0200-000003010000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K39)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="268" id="{00000000-000E-0000-0200-000004010000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="277" id="{00000000-000E-0000-0200-00000D010000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K40)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="278" id="{00000000-000E-0000-0200-00000E010000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="287" id="{00000000-000E-0000-0200-000017010000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K41)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="288" id="{00000000-000E-0000-0200-000018010000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-000027000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000028000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000031000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-000032000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-00003B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-00003C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{33D68E71-D553-B040-8175-ED895A9C815B}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{E1B8132F-CE49-A741-AFF4-8503D113D276}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{DA942B19-8DC8-3D40-AECF-11213A99B5AF}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(G16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{B046F495-62F8-E545-9D30-39A3A349067B}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{8F99AE53-0E16-7142-9017-54083AC096E9}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(G17)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{A2E2651E-B9C7-0B48-B1C0-5FB5856FDA9C}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{54767F60-D1F6-BD4F-8436-E36912893689}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{E5792487-5C3D-8143-A1AA-92645BAAD39B}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
           <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="209" id="{00000000-000E-0000-0200-0000CB000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H32)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="210" id="{00000000-000E-0000-0200-0000CC000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="219" id="{00000000-000E-0000-0200-0000D5000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H33)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="220" id="{00000000-000E-0000-0200-0000D6000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="229" id="{00000000-000E-0000-0200-0000DF000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H34)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="230" id="{00000000-000E-0000-0200-0000E0000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="239" id="{00000000-000E-0000-0200-0000E9000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H35)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="240" id="{00000000-000E-0000-0200-0000EA000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="249" id="{00000000-000E-0000-0200-0000F3000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H38)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="250" id="{00000000-000E-0000-0200-0000F4000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="259" id="{00000000-000E-0000-0200-0000FD000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H39)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="260" id="{00000000-000E-0000-0200-0000FE000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-000017000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-000018000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="269" id="{00000000-000E-0000-0200-000007010000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H40)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="270" id="{00000000-000E-0000-0200-000008010000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="279" id="{00000000-000E-0000-0200-000011010000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H41)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="280" id="{00000000-000E-0000-0200-000012010000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-000021000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000022000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-00002B000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-00002C000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-000035000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-000036000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-000041000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000042000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-00004B000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-00004C000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-000055000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-000056000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="101" id="{00000000-000E-0000-0200-00005F000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="102" id="{00000000-000E-0000-0200-000060000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="111" id="{00000000-000E-0000-0200-000069000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="112" id="{00000000-000E-0000-0200-00006A000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000073000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-000074000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-000005000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-000006000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-00007D000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-00007E000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-000087000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-000088000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="151" id="{00000000-000E-0000-0200-000091000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="152" id="{00000000-000E-0000-0200-000092000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="161" id="{00000000-000E-0000-0200-00009B000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="162" id="{00000000-000E-0000-0200-00009C000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="171" id="{00000000-000E-0000-0200-0000A5000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="172" id="{00000000-000E-0000-0200-0000A6000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="181" id="{00000000-000E-0000-0200-0000AF000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="182" id="{00000000-000E-0000-0200-0000B0000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="191" id="{00000000-000E-0000-0200-0000B9000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="192" id="{00000000-000E-0000-0200-0000BA000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="201" id="{00000000-000E-0000-0200-0000C3000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="202" id="{00000000-000E-0000-0200-0000C4000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-00000F000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000010000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="211" id="{00000000-000E-0000-0200-0000CD000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I32)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="212" id="{00000000-000E-0000-0200-0000CE000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="221" id="{00000000-000E-0000-0200-0000D7000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I33)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="222" id="{00000000-000E-0000-0200-0000D8000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="231" id="{00000000-000E-0000-0200-0000E1000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I34)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="232" id="{00000000-000E-0000-0200-0000E2000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="241" id="{00000000-000E-0000-0200-0000EB000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I35)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="242" id="{00000000-000E-0000-0200-0000EC000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="251" id="{00000000-000E-0000-0200-0000F5000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I38)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="252" id="{00000000-000E-0000-0200-0000F6000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="261" id="{00000000-000E-0000-0200-0000FF000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I39)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="262" id="{00000000-000E-0000-0200-000000010000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-000019000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-00001A000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="271" id="{00000000-000E-0000-0200-000009010000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I40)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="272" id="{00000000-000E-0000-0200-00000A010000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="281" id="{00000000-000E-0000-0200-000013010000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I41)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="282" id="{00000000-000E-0000-0200-000014010000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000023000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-000024000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-00002D000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-00002E000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-000037000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-000038000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000043000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-000044000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-00004D000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-00004E000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="93" id="{00000000-000E-0000-0200-000057000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="94" id="{00000000-000E-0000-0200-000058000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="103" id="{00000000-000E-0000-0200-000061000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="104" id="{00000000-000E-0000-0200-000062000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-00006B000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-00006C000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-000075000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-000076000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-000007000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-000008000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-00007F000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-000080000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="143" id="{00000000-000E-0000-0200-000089000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="144" id="{00000000-000E-0000-0200-00008A000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="153" id="{00000000-000E-0000-0200-000093000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="154" id="{00000000-000E-0000-0200-000094000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="163" id="{00000000-000E-0000-0200-00009D000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="164" id="{00000000-000E-0000-0200-00009E000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="173" id="{00000000-000E-0000-0200-0000A7000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="174" id="{00000000-000E-0000-0200-0000A8000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="183" id="{00000000-000E-0000-0200-0000B1000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="184" id="{00000000-000E-0000-0200-0000B2000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="193" id="{00000000-000E-0000-0200-0000BB000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="194" id="{00000000-000E-0000-0200-0000BC000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="203" id="{00000000-000E-0000-0200-0000C5000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="204" id="{00000000-000E-0000-0200-0000C6000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000011000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000012000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="213" id="{00000000-000E-0000-0200-0000CF000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J32)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="214" id="{00000000-000E-0000-0200-0000D0000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="223" id="{00000000-000E-0000-0200-0000D9000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J33)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="224" id="{00000000-000E-0000-0200-0000DA000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="233" id="{00000000-000E-0000-0200-0000E3000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J34)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="234" id="{00000000-000E-0000-0200-0000E4000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="243" id="{00000000-000E-0000-0200-0000ED000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J35)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="244" id="{00000000-000E-0000-0200-0000EE000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="253" id="{00000000-000E-0000-0200-0000F7000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J38)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="254" id="{00000000-000E-0000-0200-0000F8000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="263" id="{00000000-000E-0000-0200-000001010000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J39)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="264" id="{00000000-000E-0000-0200-000002010000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-00001B000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-00001C000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="273" id="{00000000-000E-0000-0200-00000B010000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J40)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="274" id="{00000000-000E-0000-0200-00000C010000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="283" id="{00000000-000E-0000-0200-000015010000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J41)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="284" id="{00000000-000E-0000-0200-000016010000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-000025000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-000026000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-00002F000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-000030000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-000039000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-00003A000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-000045000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-000046000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-00004F000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-000050000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="95" id="{00000000-000E-0000-0200-000059000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="96" id="{00000000-000E-0000-0200-00005A000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000063000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-000064000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-00006D000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-00006E000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="125" id="{00000000-000E-0000-0200-000077000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="126" id="{00000000-000E-0000-0200-000078000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-000009000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-00000A000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-000081000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000082000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="145" id="{00000000-000E-0000-0200-00008B000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="146" id="{00000000-000E-0000-0200-00008C000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="155" id="{00000000-000E-0000-0200-000095000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="156" id="{00000000-000E-0000-0200-000096000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="165" id="{00000000-000E-0000-0200-00009F000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="166" id="{00000000-000E-0000-0200-0000A0000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="175" id="{00000000-000E-0000-0200-0000A9000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="176" id="{00000000-000E-0000-0200-0000AA000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="185" id="{00000000-000E-0000-0200-0000B3000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="186" id="{00000000-000E-0000-0200-0000B4000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="195" id="{00000000-000E-0000-0200-0000BD000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="196" id="{00000000-000E-0000-0200-0000BE000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="205" id="{00000000-000E-0000-0200-0000C7000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="206" id="{00000000-000E-0000-0200-0000C8000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000013000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-000014000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="215" id="{00000000-000E-0000-0200-0000D1000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K32)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="216" id="{00000000-000E-0000-0200-0000D2000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="225" id="{00000000-000E-0000-0200-0000DB000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K33)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="226" id="{00000000-000E-0000-0200-0000DC000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="235" id="{00000000-000E-0000-0200-0000E5000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K34)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="236" id="{00000000-000E-0000-0200-0000E6000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="245" id="{00000000-000E-0000-0200-0000EF000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K35)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="246" id="{00000000-000E-0000-0200-0000F0000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="255" id="{00000000-000E-0000-0200-0000F9000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K38)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="256" id="{00000000-000E-0000-0200-0000FA000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="265" id="{00000000-000E-0000-0200-000003010000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K39)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="266" id="{00000000-000E-0000-0200-000004010000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-00001D000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-00001E000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="275" id="{00000000-000E-0000-0200-00000D010000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K40)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="276" id="{00000000-000E-0000-0200-00000E010000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="285" id="{00000000-000E-0000-0200-000017010000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K41)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="286" id="{00000000-000E-0000-0200-000018010000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-000027000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-000028000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-000031000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000032000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-00003B000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-00003C000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{33D68E71-D553-B040-8175-ED895A9C815B}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{E1B8132F-CE49-A741-AFF4-8503D113D276}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{DA942B19-8DC8-3D40-AECF-11213A99B5AF}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(G16)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{B046F495-62F8-E545-9D30-39A3A349067B}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{8F99AE53-0E16-7142-9017-54083AC096E9}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(G17)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{A2E2651E-B9C7-0B48-B1C0-5FB5856FDA9C}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/tests/databooks/progbook_hypertension_dyn.xlsx
+++ b/tests/databooks/progbook_hypertension_dyn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF567A8A-3286-E94A-ADA1-642BBF34D9EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FC7E9FA-8DA8-224C-A13F-FB4C55B7A0C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="22860" windowHeight="14000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Impact interaction</t>
   </si>
   <si>
-    <t>Screening yield</t>
-  </si>
-  <si>
-    <t>Screening sensitivity</t>
-  </si>
-  <si>
     <t>Annual number of new diagnoses</t>
   </si>
   <si>
@@ -144,7 +138,7 @@
     <t>Best</t>
   </si>
   <si>
-    <t>Screening coverage shares</t>
+    <t>Annual number screened positive</t>
   </si>
 </sst>
 </file>
@@ -209,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -224,12 +218,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5481,10 +5469,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
@@ -5493,16 +5481,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>14</v>
@@ -5519,16 +5507,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -5537,10 +5525,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>14</v>
@@ -5557,22 +5545,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>14</v>
@@ -5581,7 +5569,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>14</v>
@@ -5595,22 +5583,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
@@ -5622,7 +5610,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>14</v>
@@ -5633,22 +5621,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
@@ -5663,10 +5651,10 @@
         <v>14</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6659,10 +6647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6675,7 +6663,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -6719,16 +6707,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5">
-        <f>4066/SUM(4066,2506)*2</f>
-        <v>1.2373706634205721</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -6743,16 +6730,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
-        <f>2506/SUM(4066,2506)*2</f>
-        <v>0.76262933657942789</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6767,15 +6753,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="5">
-        <f>22773/SUM(19330,22773)*2</f>
-        <v>1.0817756454409424</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6791,15 +6776,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5">
-        <f>19330/SUM(19330,22773)*2</f>
-        <v>0.9182243545590576</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -6852,17 +6836,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
@@ -6875,17 +6859,17 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
@@ -6898,17 +6882,17 @@
         <v>0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="G10" s="6">
-        <v>1E-4</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
@@ -6921,17 +6905,17 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="G11" s="6">
-        <v>8.0000000000000007E-5</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
@@ -6981,18 +6965,18 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -7004,18 +6988,18 @@
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="7">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -7027,18 +7011,18 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -7050,18 +7034,18 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
       <c r="K17" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -7080,118 +7064,109 @@
       <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="2" t="str">
-        <f>'Program targeting'!$A$3</f>
-        <v>Screening - urban</v>
-      </c>
-      <c r="H19" s="2" t="str">
-        <f>'Program targeting'!$A$4</f>
-        <v>Screening - rural</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f>'Program targeting'!$A$5</f>
-        <v>Confirmatory test</v>
-      </c>
-      <c r="J19" s="2" t="str">
-        <f>'Program targeting'!$A$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="K19" s="2" t="str">
-        <f>'Program targeting'!$A$7</f>
-        <v>Adherence</v>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f>'Program targeting'!$C$2</f>
-        <v>Rural males</v>
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f>'Program targeting'!$D$2</f>
-        <v>Rural females</v>
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f>'Program targeting'!$E$2</f>
-        <v>Urban males</v>
+      <c r="A22" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f>'Program targeting'!$F$2</f>
-        <v>Urban females</v>
+      <c r="A23" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -7209,365 +7184,116 @@
       <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="2" t="str">
-        <f>'Program targeting'!$A$3</f>
-        <v>Screening - urban</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f>'Program targeting'!$A$4</f>
-        <v>Screening - rural</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f>'Program targeting'!$A$5</f>
-        <v>Confirmatory test</v>
-      </c>
-      <c r="J25" s="2" t="str">
-        <f>'Program targeting'!$A$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f>'Program targeting'!$A$7</f>
-        <v>Adherence</v>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f>'Program targeting'!$C$2</f>
-        <v>Rural males</v>
+      <c r="A26" t="s">
+        <v>4</v>
       </c>
       <c r="B26" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <f>'Program targeting'!$D$2</f>
-        <v>Rural females</v>
+      <c r="A27" t="s">
+        <v>5</v>
       </c>
       <c r="B27" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <f>'Program targeting'!$E$2</f>
-        <v>Urban males</v>
+      <c r="A28" t="s">
+        <v>6</v>
       </c>
       <c r="B28" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <f>'Program targeting'!$F$2</f>
-        <v>Urban females</v>
+      <c r="A29" t="s">
+        <v>7</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C35 C26:C29 C20:C23 C14:C17 C8:C11 C2:C5 C38:C41" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C23 C14:C17 C8:C11 C2:C5 C26:C29" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D35 D26:D29 D20:D23 D14:D17 D8:D11 D2:D5 D38:D41" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D23 D14:D17 D8:D11 D2:D5 D26:D29" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7576,8 +7302,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-00003D000000}">
-            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</xm:f>
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7586,8 +7312,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-00003E000000}">
-            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7612,11 +7338,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G10</xm:sqref>
+          <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="79" id="{00000000-000E-0000-0200-000047000000}">
-            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000079000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7625,8 +7351,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="80" id="{00000000-000E-0000-0200-000048000000}">
-            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-00007A000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7651,11 +7377,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G11</xm:sqref>
+          <xm:sqref>G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="89" id="{00000000-000E-0000-0200-000051000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</xm:f>
+          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-000083000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7664,8 +7390,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="90" id="{00000000-000E-0000-0200-000052000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-000084000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7690,11 +7416,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G14</xm:sqref>
+          <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="99" id="{00000000-000E-0000-0200-00005B000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</xm:f>
+          <x14:cfRule type="expression" priority="149" id="{00000000-000E-0000-0200-00008D000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7703,8 +7429,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="100" id="{00000000-000E-0000-0200-00005C000000}">
-            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="150" id="{00000000-000E-0000-0200-00008E000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7729,11 +7455,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G15</xm:sqref>
+          <xm:sqref>G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000001000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+          <x14:cfRule type="expression" priority="159" id="{00000000-000E-0000-0200-000097000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7742,8 +7468,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-000002000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="160" id="{00000000-000E-0000-0200-000098000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7768,11 +7494,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000079000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</xm:f>
+          <x14:cfRule type="expression" priority="169" id="{00000000-000E-0000-0200-0000A1000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7781,7 +7507,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-00007A000000}">
+          <x14:cfRule type="expression" priority="170" id="{00000000-000E-0000-0200-0000A2000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7807,11 +7533,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G20</xm:sqref>
+          <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-000083000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</xm:f>
+          <x14:cfRule type="expression" priority="179" id="{00000000-000E-0000-0200-0000AB000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7820,7 +7546,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-000084000000}">
+          <x14:cfRule type="expression" priority="180" id="{00000000-000E-0000-0200-0000AC000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7846,11 +7572,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G21</xm:sqref>
+          <xm:sqref>G15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="149" id="{00000000-000E-0000-0200-00008D000000}">
-            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</xm:f>
+          <x14:cfRule type="expression" priority="189" id="{00000000-000E-0000-0200-0000B5000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7859,7 +7585,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="150" id="{00000000-000E-0000-0200-00008E000000}">
+          <x14:cfRule type="expression" priority="190" id="{00000000-000E-0000-0200-0000B6000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7885,11 +7611,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
+          <xm:sqref>G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="159" id="{00000000-000E-0000-0200-000097000000}">
-            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</xm:f>
+          <x14:cfRule type="expression" priority="199" id="{00000000-000E-0000-0200-0000BF000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G17)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7898,7 +7624,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="160" id="{00000000-000E-0000-0200-000098000000}">
+          <x14:cfRule type="expression" priority="200" id="{00000000-000E-0000-0200-0000C0000000}">
             <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -7924,11 +7650,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
+          <xm:sqref>G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="169" id="{00000000-000E-0000-0200-0000A1000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</xm:f>
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7937,8 +7663,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="170" id="{00000000-000E-0000-0200-0000A2000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7963,11 +7689,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G26</xm:sqref>
+          <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="179" id="{00000000-000E-0000-0200-0000AB000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</xm:f>
+          <x14:cfRule type="expression" priority="209" id="{00000000-000E-0000-0200-0000C9000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -7976,8 +7702,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="180" id="{00000000-000E-0000-0200-0000AC000000}">
-            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="210" id="{00000000-000E-0000-0200-0000CA000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8002,11 +7728,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G27</xm:sqref>
+          <xm:sqref>G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="189" id="{00000000-000E-0000-0200-0000B5000000}">
-            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</xm:f>
+          <x14:cfRule type="expression" priority="219" id="{00000000-000E-0000-0200-0000D3000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8015,8 +7741,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="190" id="{00000000-000E-0000-0200-0000B6000000}">
-            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="220" id="{00000000-000E-0000-0200-0000D4000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8041,11 +7767,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
+          <xm:sqref>G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="199" id="{00000000-000E-0000-0200-0000BF000000}">
-            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</xm:f>
+          <x14:cfRule type="expression" priority="229" id="{00000000-000E-0000-0200-0000DD000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8054,8 +7780,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="200" id="{00000000-000E-0000-0200-0000C0000000}">
-            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="230" id="{00000000-000E-0000-0200-0000DE000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8080,11 +7806,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
+          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-00000B000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
+          <x14:cfRule type="expression" priority="239" id="{00000000-000E-0000-0200-0000E7000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8093,8 +7819,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-00000C000000}">
-            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="240" id="{00000000-000E-0000-0200-0000E8000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8119,11 +7845,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="209" id="{00000000-000E-0000-0200-0000C9000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G32)))</xm:f>
+          <x14:cfRule type="expression" priority="249" id="{00000000-000E-0000-0200-0000F1000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8132,7 +7858,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="210" id="{00000000-000E-0000-0200-0000CA000000}">
+          <x14:cfRule type="expression" priority="250" id="{00000000-000E-0000-0200-0000F2000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8158,11 +7884,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
+          <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="219" id="{00000000-000E-0000-0200-0000D3000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G33)))</xm:f>
+          <x14:cfRule type="expression" priority="259" id="{00000000-000E-0000-0200-0000FB000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8171,7 +7897,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="220" id="{00000000-000E-0000-0200-0000D4000000}">
+          <x14:cfRule type="expression" priority="260" id="{00000000-000E-0000-0200-0000FC000000}">
             <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8197,11 +7923,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G33</xm:sqref>
+          <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="229" id="{00000000-000E-0000-0200-0000DD000000}">
-            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G34)))</xm:f>
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8210,7 +7936,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="230" id="{00000000-000E-0000-0200-0000DE000000}">
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-000016000000}">
             <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -8236,11 +7962,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G34</xm:sqref>
+          <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="239" id="{00000000-000E-0000-0200-0000E7000000}">
-            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G35)))</xm:f>
+          <x14:cfRule type="expression" priority="269" id="{00000000-000E-0000-0200-000005010000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8249,8 +7975,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="240" id="{00000000-000E-0000-0200-0000E8000000}">
-            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="270" id="{00000000-000E-0000-0200-000006010000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8275,11 +8001,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G35</xm:sqref>
+          <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="249" id="{00000000-000E-0000-0200-0000F1000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G38)))</xm:f>
+          <x14:cfRule type="expression" priority="279" id="{00000000-000E-0000-0200-00000F010000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8288,8 +8014,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="250" id="{00000000-000E-0000-0200-0000F2000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="280" id="{00000000-000E-0000-0200-000010010000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8314,11 +8040,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G38</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="259" id="{00000000-000E-0000-0200-0000FB000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G39)))</xm:f>
+          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-00001F000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8327,8 +8053,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="260" id="{00000000-000E-0000-0200-0000FC000000}">
-            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000020000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8353,11 +8079,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
+          <xm:sqref>G5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-000015000000}">
-            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</xm:f>
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8366,8 +8092,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-000016000000}">
-            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8392,11 +8118,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G4</xm:sqref>
+          <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="269" id="{00000000-000E-0000-0200-000005010000}">
-            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G40)))</xm:f>
+          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-00007B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8405,8 +8131,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="270" id="{00000000-000E-0000-0200-000006010000}">
-            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-00007C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8431,11 +8157,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G40</xm:sqref>
+          <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="279" id="{00000000-000E-0000-0200-00000F010000}">
-            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G41)))</xm:f>
+          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-000085000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8444,8 +8170,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="280" id="{00000000-000E-0000-0200-000010010000}">
-            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-000086000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8470,11 +8196,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G41</xm:sqref>
+          <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-00001F000000}">
-            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+          <x14:cfRule type="expression" priority="151" id="{00000000-000E-0000-0200-00008F000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8483,8 +8209,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000020000000}">
-            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="152" id="{00000000-000E-0000-0200-000090000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8509,11 +8235,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G5</xm:sqref>
+          <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000029000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+          <x14:cfRule type="expression" priority="161" id="{00000000-000E-0000-0200-000099000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8522,8 +8248,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-00002A000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="162" id="{00000000-000E-0000-0200-00009A000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8548,11 +8274,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8</xm:sqref>
+          <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-000033000000}">
-            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</xm:f>
+          <x14:cfRule type="expression" priority="171" id="{00000000-000E-0000-0200-0000A3000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8561,8 +8287,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-000034000000}">
-            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="172" id="{00000000-000E-0000-0200-0000A4000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8587,11 +8313,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G9</xm:sqref>
+          <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-00003F000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</xm:f>
+          <x14:cfRule type="expression" priority="181" id="{00000000-000E-0000-0200-0000AD000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8600,8 +8326,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000040000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="182" id="{00000000-000E-0000-0200-0000AE000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8626,11 +8352,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-000049000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
+          <x14:cfRule type="expression" priority="191" id="{00000000-000E-0000-0200-0000B7000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8639,8 +8365,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-00004A000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="192" id="{00000000-000E-0000-0200-0000B8000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8665,11 +8391,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-000053000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</xm:f>
+          <x14:cfRule type="expression" priority="201" id="{00000000-000E-0000-0200-0000C1000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8678,8 +8404,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-000054000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="202" id="{00000000-000E-0000-0200-0000C2000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8704,11 +8430,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="111" id="{00000000-000E-0000-0200-000067000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</xm:f>
+          <x14:cfRule type="expression" priority="211" id="{00000000-000E-0000-0200-0000CB000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8717,8 +8443,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="112" id="{00000000-000E-0000-0200-000068000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="212" id="{00000000-000E-0000-0200-0000CC000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8743,11 +8469,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000071000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</xm:f>
+          <x14:cfRule type="expression" priority="221" id="{00000000-000E-0000-0200-0000D5000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8756,8 +8482,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-000072000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="222" id="{00000000-000E-0000-0200-0000D6000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8782,11 +8508,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-000003000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+          <x14:cfRule type="expression" priority="231" id="{00000000-000E-0000-0200-0000DF000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8795,8 +8521,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-000004000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="232" id="{00000000-000E-0000-0200-0000E0000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8821,11 +8547,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-00007B000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</xm:f>
+          <x14:cfRule type="expression" priority="241" id="{00000000-000E-0000-0200-0000E9000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8834,8 +8560,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-00007C000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="242" id="{00000000-000E-0000-0200-0000EA000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8860,11 +8586,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-000085000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</xm:f>
+          <x14:cfRule type="expression" priority="251" id="{00000000-000E-0000-0200-0000F3000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8873,8 +8599,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-000086000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="252" id="{00000000-000E-0000-0200-0000F4000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8899,11 +8625,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="151" id="{00000000-000E-0000-0200-00008F000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</xm:f>
+          <x14:cfRule type="expression" priority="261" id="{00000000-000E-0000-0200-0000FD000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8912,8 +8638,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="152" id="{00000000-000E-0000-0200-000090000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="262" id="{00000000-000E-0000-0200-0000FE000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8938,11 +8664,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="161" id="{00000000-000E-0000-0200-000099000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</xm:f>
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8951,8 +8677,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="162" id="{00000000-000E-0000-0200-00009A000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8977,11 +8703,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
+          <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="171" id="{00000000-000E-0000-0200-0000A3000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</xm:f>
+          <x14:cfRule type="expression" priority="271" id="{00000000-000E-0000-0200-000007010000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -8990,8 +8716,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="172" id="{00000000-000E-0000-0200-0000A4000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="272" id="{00000000-000E-0000-0200-000008010000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9016,11 +8742,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="181" id="{00000000-000E-0000-0200-0000AD000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</xm:f>
+          <x14:cfRule type="expression" priority="281" id="{00000000-000E-0000-0200-000011010000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9029,8 +8755,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="182" id="{00000000-000E-0000-0200-0000AE000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="282" id="{00000000-000E-0000-0200-000012010000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9055,11 +8781,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
+          <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="191" id="{00000000-000E-0000-0200-0000B7000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</xm:f>
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9068,8 +8794,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="192" id="{00000000-000E-0000-0200-0000B8000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9094,11 +8820,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
+          <xm:sqref>H5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="201" id="{00000000-000E-0000-0200-0000C1000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</xm:f>
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9107,8 +8833,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="202" id="{00000000-000E-0000-0200-0000C2000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9133,11 +8859,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>I2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="211" id="{00000000-000E-0000-0200-0000CB000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H32)))</xm:f>
+          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-00007D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9146,8 +8872,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="212" id="{00000000-000E-0000-0200-0000CC000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-00007E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9172,11 +8898,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>I8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="221" id="{00000000-000E-0000-0200-0000D5000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H33)))</xm:f>
+          <x14:cfRule type="expression" priority="143" id="{00000000-000E-0000-0200-000087000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9185,8 +8911,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="222" id="{00000000-000E-0000-0200-0000D6000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="144" id="{00000000-000E-0000-0200-000088000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9211,11 +8937,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>I9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="231" id="{00000000-000E-0000-0200-0000DF000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H34)))</xm:f>
+          <x14:cfRule type="expression" priority="153" id="{00000000-000E-0000-0200-000091000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9224,8 +8950,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="232" id="{00000000-000E-0000-0200-0000E0000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="154" id="{00000000-000E-0000-0200-000092000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9250,11 +8976,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
+          <xm:sqref>I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="241" id="{00000000-000E-0000-0200-0000E9000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H35)))</xm:f>
+          <x14:cfRule type="expression" priority="163" id="{00000000-000E-0000-0200-00009B000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9263,8 +8989,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="242" id="{00000000-000E-0000-0200-0000EA000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="164" id="{00000000-000E-0000-0200-00009C000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9289,11 +9015,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
+          <xm:sqref>I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="251" id="{00000000-000E-0000-0200-0000F3000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H38)))</xm:f>
+          <x14:cfRule type="expression" priority="173" id="{00000000-000E-0000-0200-0000A5000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9302,8 +9028,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="252" id="{00000000-000E-0000-0200-0000F4000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="174" id="{00000000-000E-0000-0200-0000A6000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9328,11 +9054,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="261" id="{00000000-000E-0000-0200-0000FD000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H39)))</xm:f>
+          <x14:cfRule type="expression" priority="183" id="{00000000-000E-0000-0200-0000AF000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9341,8 +9067,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="262" id="{00000000-000E-0000-0200-0000FE000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="184" id="{00000000-000E-0000-0200-0000B0000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9367,11 +9093,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-000017000000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</xm:f>
+          <x14:cfRule type="expression" priority="193" id="{00000000-000E-0000-0200-0000B9000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9380,8 +9106,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000018000000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="194" id="{00000000-000E-0000-0200-0000BA000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9406,11 +9132,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
+          <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="271" id="{00000000-000E-0000-0200-000007010000}">
-            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H40)))</xm:f>
+          <x14:cfRule type="expression" priority="203" id="{00000000-000E-0000-0200-0000C3000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9419,8 +9145,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="272" id="{00000000-000E-0000-0200-000008010000}">
-            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="204" id="{00000000-000E-0000-0200-0000C4000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9445,11 +9171,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="281" id="{00000000-000E-0000-0200-000011010000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H41)))</xm:f>
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9458,8 +9184,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="282" id="{00000000-000E-0000-0200-000012010000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9484,11 +9210,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>I3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000021000000}">
-            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+          <x14:cfRule type="expression" priority="213" id="{00000000-000E-0000-0200-0000CD000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9497,8 +9223,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-000022000000}">
-            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="214" id="{00000000-000E-0000-0200-0000CE000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9523,11 +9249,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H5</xm:sqref>
+          <xm:sqref>I20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-00002B000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+          <x14:cfRule type="expression" priority="223" id="{00000000-000E-0000-0200-0000D7000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9536,8 +9262,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-00002C000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="224" id="{00000000-000E-0000-0200-0000D8000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9562,11 +9288,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
+          <xm:sqref>I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-000035000000}">
-            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</xm:f>
+          <x14:cfRule type="expression" priority="233" id="{00000000-000E-0000-0200-0000E1000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9575,8 +9301,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-000036000000}">
-            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="234" id="{00000000-000E-0000-0200-0000E2000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9601,11 +9327,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H9</xm:sqref>
+          <xm:sqref>I22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000041000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
+          <x14:cfRule type="expression" priority="243" id="{00000000-000E-0000-0200-0000EB000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9614,8 +9340,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-000042000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="244" id="{00000000-000E-0000-0200-0000EC000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9640,11 +9366,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I10</xm:sqref>
+          <xm:sqref>I23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-00004B000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+          <x14:cfRule type="expression" priority="253" id="{00000000-000E-0000-0200-0000F5000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9653,8 +9379,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-00004C000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="254" id="{00000000-000E-0000-0200-0000F6000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9679,11 +9405,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I11</xm:sqref>
+          <xm:sqref>I26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="93" id="{00000000-000E-0000-0200-000055000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
+          <x14:cfRule type="expression" priority="263" id="{00000000-000E-0000-0200-0000FF000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9692,8 +9418,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="94" id="{00000000-000E-0000-0200-000056000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="264" id="{00000000-000E-0000-0200-000000010000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9718,11 +9444,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I14</xm:sqref>
+          <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="103" id="{00000000-000E-0000-0200-00005F000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9731,8 +9457,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="104" id="{00000000-000E-0000-0200-000060000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9757,11 +9483,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I15</xm:sqref>
+          <xm:sqref>I4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-000069000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</xm:f>
+          <x14:cfRule type="expression" priority="273" id="{00000000-000E-0000-0200-000009010000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9770,7 +9496,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-00006A000000}">
+          <x14:cfRule type="expression" priority="274" id="{00000000-000E-0000-0200-00000A010000}">
             <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9796,11 +9522,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I16</xm:sqref>
+          <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-000073000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</xm:f>
+          <x14:cfRule type="expression" priority="283" id="{00000000-000E-0000-0200-000013010000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9809,7 +9535,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-000074000000}">
+          <x14:cfRule type="expression" priority="284" id="{00000000-000E-0000-0200-000014010000}">
             <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -9835,11 +9561,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I17</xm:sqref>
+          <xm:sqref>I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-000005000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9848,8 +9574,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-000006000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9874,11 +9600,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I2</xm:sqref>
+          <xm:sqref>I5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-00007D000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</xm:f>
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9887,8 +9613,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-00007E000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9913,11 +9639,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I20</xm:sqref>
+          <xm:sqref>J2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="143" id="{00000000-000E-0000-0200-000087000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</xm:f>
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-00007F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9926,8 +9652,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="144" id="{00000000-000E-0000-0200-000088000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000080000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9952,11 +9678,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I21</xm:sqref>
+          <xm:sqref>J8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="153" id="{00000000-000E-0000-0200-000091000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</xm:f>
+          <x14:cfRule type="expression" priority="145" id="{00000000-000E-0000-0200-000089000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9965,8 +9691,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="154" id="{00000000-000E-0000-0200-000092000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="146" id="{00000000-000E-0000-0200-00008A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -9991,11 +9717,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I22</xm:sqref>
+          <xm:sqref>J9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="163" id="{00000000-000E-0000-0200-00009B000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</xm:f>
+          <x14:cfRule type="expression" priority="155" id="{00000000-000E-0000-0200-000093000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10004,8 +9730,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="164" id="{00000000-000E-0000-0200-00009C000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="156" id="{00000000-000E-0000-0200-000094000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10030,11 +9756,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I23</xm:sqref>
+          <xm:sqref>J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="173" id="{00000000-000E-0000-0200-0000A5000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</xm:f>
+          <x14:cfRule type="expression" priority="165" id="{00000000-000E-0000-0200-00009D000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10043,8 +9769,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="174" id="{00000000-000E-0000-0200-0000A6000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="166" id="{00000000-000E-0000-0200-00009E000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10069,11 +9795,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I26</xm:sqref>
+          <xm:sqref>J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="183" id="{00000000-000E-0000-0200-0000AF000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</xm:f>
+          <x14:cfRule type="expression" priority="175" id="{00000000-000E-0000-0200-0000A7000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10082,8 +9808,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="184" id="{00000000-000E-0000-0200-0000B0000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="176" id="{00000000-000E-0000-0200-0000A8000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10108,11 +9834,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I27</xm:sqref>
+          <xm:sqref>J14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="193" id="{00000000-000E-0000-0200-0000B9000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</xm:f>
+          <x14:cfRule type="expression" priority="185" id="{00000000-000E-0000-0200-0000B1000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10121,8 +9847,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="194" id="{00000000-000E-0000-0200-0000BA000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="186" id="{00000000-000E-0000-0200-0000B2000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10147,11 +9873,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I28</xm:sqref>
+          <xm:sqref>J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="203" id="{00000000-000E-0000-0200-0000C3000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</xm:f>
+          <x14:cfRule type="expression" priority="195" id="{00000000-000E-0000-0200-0000BB000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10160,8 +9886,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="204" id="{00000000-000E-0000-0200-0000C4000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="196" id="{00000000-000E-0000-0200-0000BC000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10186,11 +9912,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I29</xm:sqref>
+          <xm:sqref>J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-00000F000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
+          <x14:cfRule type="expression" priority="205" id="{00000000-000E-0000-0200-0000C5000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10199,8 +9925,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000010000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="206" id="{00000000-000E-0000-0200-0000C6000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10225,11 +9951,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I3</xm:sqref>
+          <xm:sqref>J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="213" id="{00000000-000E-0000-0200-0000CD000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I32)))</xm:f>
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10238,8 +9964,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="214" id="{00000000-000E-0000-0200-0000CE000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10264,11 +9990,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I32</xm:sqref>
+          <xm:sqref>J3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="223" id="{00000000-000E-0000-0200-0000D7000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I33)))</xm:f>
+          <x14:cfRule type="expression" priority="215" id="{00000000-000E-0000-0200-0000CF000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10277,8 +10003,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="224" id="{00000000-000E-0000-0200-0000D8000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="216" id="{00000000-000E-0000-0200-0000D0000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10303,11 +10029,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I33</xm:sqref>
+          <xm:sqref>J20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="233" id="{00000000-000E-0000-0200-0000E1000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I34)))</xm:f>
+          <x14:cfRule type="expression" priority="225" id="{00000000-000E-0000-0200-0000D9000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10316,8 +10042,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="234" id="{00000000-000E-0000-0200-0000E2000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="226" id="{00000000-000E-0000-0200-0000DA000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10342,11 +10068,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I34</xm:sqref>
+          <xm:sqref>J21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="243" id="{00000000-000E-0000-0200-0000EB000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I35)))</xm:f>
+          <x14:cfRule type="expression" priority="235" id="{00000000-000E-0000-0200-0000E3000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10355,8 +10081,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="244" id="{00000000-000E-0000-0200-0000EC000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="236" id="{00000000-000E-0000-0200-0000E4000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10381,11 +10107,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I35</xm:sqref>
+          <xm:sqref>J22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="253" id="{00000000-000E-0000-0200-0000F5000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I38)))</xm:f>
+          <x14:cfRule type="expression" priority="245" id="{00000000-000E-0000-0200-0000ED000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10394,8 +10120,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="254" id="{00000000-000E-0000-0200-0000F6000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="246" id="{00000000-000E-0000-0200-0000EE000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10420,11 +10146,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I38</xm:sqref>
+          <xm:sqref>J23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="263" id="{00000000-000E-0000-0200-0000FF000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I39)))</xm:f>
+          <x14:cfRule type="expression" priority="255" id="{00000000-000E-0000-0200-0000F7000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10433,8 +10159,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="264" id="{00000000-000E-0000-0200-000000010000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="256" id="{00000000-000E-0000-0200-0000F8000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10459,11 +10185,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I39</xm:sqref>
+          <xm:sqref>J26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000019000000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</xm:f>
+          <x14:cfRule type="expression" priority="265" id="{00000000-000E-0000-0200-000001010000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10472,8 +10198,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-00001A000000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="266" id="{00000000-000E-0000-0200-000002010000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10498,11 +10224,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I4</xm:sqref>
+          <xm:sqref>J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="273" id="{00000000-000E-0000-0200-000009010000}">
-            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I40)))</xm:f>
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10511,8 +10237,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="274" id="{00000000-000E-0000-0200-00000A010000}">
-            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10537,11 +10263,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I40</xm:sqref>
+          <xm:sqref>J4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="283" id="{00000000-000E-0000-0200-000013010000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I41)))</xm:f>
+          <x14:cfRule type="expression" priority="275" id="{00000000-000E-0000-0200-00000B010000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10550,8 +10276,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="284" id="{00000000-000E-0000-0200-000014010000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="276" id="{00000000-000E-0000-0200-00000C010000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10576,11 +10302,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I41</xm:sqref>
+          <xm:sqref>J28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-000023000000}">
-            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+          <x14:cfRule type="expression" priority="285" id="{00000000-000E-0000-0200-000015010000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10589,8 +10315,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-000024000000}">
-            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="286" id="{00000000-000E-0000-0200-000016010000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10615,11 +10341,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I5</xm:sqref>
+          <xm:sqref>J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-00002D000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10628,8 +10354,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-00002E000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10654,11 +10380,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I8</xm:sqref>
+          <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-000037000000}">
-            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</xm:f>
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10667,8 +10393,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-000038000000}">
-            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10693,11 +10419,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I9</xm:sqref>
+          <xm:sqref>K2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-000043000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
+          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000081000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10706,8 +10432,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-000044000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-000082000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10732,11 +10458,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J10</xm:sqref>
+          <xm:sqref>K8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-00004D000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+          <x14:cfRule type="expression" priority="147" id="{00000000-000E-0000-0200-00008B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10745,8 +10471,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-00004E000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="148" id="{00000000-000E-0000-0200-00008C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10771,11 +10497,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J11</xm:sqref>
+          <xm:sqref>K9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="95" id="{00000000-000E-0000-0200-000057000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
+          <x14:cfRule type="expression" priority="157" id="{00000000-000E-0000-0200-000095000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10784,8 +10510,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="96" id="{00000000-000E-0000-0200-000058000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="158" id="{00000000-000E-0000-0200-000096000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10810,11 +10536,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J14</xm:sqref>
+          <xm:sqref>K10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000061000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
+          <x14:cfRule type="expression" priority="167" id="{00000000-000E-0000-0200-00009F000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10823,8 +10549,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-000062000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="168" id="{00000000-000E-0000-0200-0000A0000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10849,11 +10575,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J15</xm:sqref>
+          <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-00006B000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</xm:f>
+          <x14:cfRule type="expression" priority="177" id="{00000000-000E-0000-0200-0000A9000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10862,8 +10588,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-00006C000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="178" id="{00000000-000E-0000-0200-0000AA000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10888,11 +10614,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J16</xm:sqref>
+          <xm:sqref>K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="125" id="{00000000-000E-0000-0200-000075000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</xm:f>
+          <x14:cfRule type="expression" priority="187" id="{00000000-000E-0000-0200-0000B3000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10901,8 +10627,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="126" id="{00000000-000E-0000-0200-000076000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="188" id="{00000000-000E-0000-0200-0000B4000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10927,11 +10653,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J17</xm:sqref>
+          <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-000007000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+          <x14:cfRule type="expression" priority="197" id="{00000000-000E-0000-0200-0000BD000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10940,8 +10666,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000008000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="198" id="{00000000-000E-0000-0200-0000BE000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10966,11 +10692,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-00007F000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</xm:f>
+          <x14:cfRule type="expression" priority="207" id="{00000000-000E-0000-0200-0000C7000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -10979,8 +10705,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000080000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="208" id="{00000000-000E-0000-0200-0000C8000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11005,11 +10731,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J20</xm:sqref>
+          <xm:sqref>K17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="145" id="{00000000-000E-0000-0200-000089000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</xm:f>
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11018,8 +10744,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="146" id="{00000000-000E-0000-0200-00008A000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11044,11 +10770,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J21</xm:sqref>
+          <xm:sqref>K3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="155" id="{00000000-000E-0000-0200-000093000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</xm:f>
+          <x14:cfRule type="expression" priority="217" id="{00000000-000E-0000-0200-0000D1000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11057,8 +10783,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="156" id="{00000000-000E-0000-0200-000094000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="218" id="{00000000-000E-0000-0200-0000D2000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11083,11 +10809,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J22</xm:sqref>
+          <xm:sqref>K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="165" id="{00000000-000E-0000-0200-00009D000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</xm:f>
+          <x14:cfRule type="expression" priority="227" id="{00000000-000E-0000-0200-0000DB000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11096,8 +10822,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="166" id="{00000000-000E-0000-0200-00009E000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="228" id="{00000000-000E-0000-0200-0000DC000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11122,11 +10848,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J23</xm:sqref>
+          <xm:sqref>K21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="175" id="{00000000-000E-0000-0200-0000A7000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</xm:f>
+          <x14:cfRule type="expression" priority="237" id="{00000000-000E-0000-0200-0000E5000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11135,8 +10861,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="176" id="{00000000-000E-0000-0200-0000A8000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="238" id="{00000000-000E-0000-0200-0000E6000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11161,11 +10887,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J26</xm:sqref>
+          <xm:sqref>K22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="185" id="{00000000-000E-0000-0200-0000B1000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</xm:f>
+          <x14:cfRule type="expression" priority="247" id="{00000000-000E-0000-0200-0000EF000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11174,8 +10900,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="186" id="{00000000-000E-0000-0200-0000B2000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="248" id="{00000000-000E-0000-0200-0000F0000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11200,11 +10926,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J27</xm:sqref>
+          <xm:sqref>K23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="195" id="{00000000-000E-0000-0200-0000BB000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</xm:f>
+          <x14:cfRule type="expression" priority="257" id="{00000000-000E-0000-0200-0000F9000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11213,8 +10939,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="196" id="{00000000-000E-0000-0200-0000BC000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="258" id="{00000000-000E-0000-0200-0000FA000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11239,11 +10965,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J28</xm:sqref>
+          <xm:sqref>K26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="205" id="{00000000-000E-0000-0200-0000C5000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</xm:f>
+          <x14:cfRule type="expression" priority="267" id="{00000000-000E-0000-0200-000003010000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11252,8 +10978,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="206" id="{00000000-000E-0000-0200-0000C6000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="268" id="{00000000-000E-0000-0200-000004010000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11278,11 +11004,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J29</xm:sqref>
+          <xm:sqref>K27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000011000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11291,8 +11017,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-000012000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11317,11 +11043,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J3</xm:sqref>
+          <xm:sqref>K4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="215" id="{00000000-000E-0000-0200-0000CF000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J32)))</xm:f>
+          <x14:cfRule type="expression" priority="277" id="{00000000-000E-0000-0200-00000D010000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11330,8 +11056,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="216" id="{00000000-000E-0000-0200-0000D0000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="278" id="{00000000-000E-0000-0200-00000E010000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11356,11 +11082,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J32</xm:sqref>
+          <xm:sqref>K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="225" id="{00000000-000E-0000-0200-0000D9000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J33)))</xm:f>
+          <x14:cfRule type="expression" priority="287" id="{00000000-000E-0000-0200-000017010000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11369,8 +11095,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="226" id="{00000000-000E-0000-0200-0000DA000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="288" id="{00000000-000E-0000-0200-000018010000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11395,11 +11121,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J33</xm:sqref>
+          <xm:sqref>K29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="235" id="{00000000-000E-0000-0200-0000E3000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J34)))</xm:f>
+          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-000027000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11408,8 +11134,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="236" id="{00000000-000E-0000-0200-0000E4000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000028000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -11434,1567 +11160,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="245" id="{00000000-000E-0000-0200-0000ED000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J35)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="246" id="{00000000-000E-0000-0200-0000EE000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="255" id="{00000000-000E-0000-0200-0000F7000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J38)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="256" id="{00000000-000E-0000-0200-0000F8000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="265" id="{00000000-000E-0000-0200-000001010000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J39)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="266" id="{00000000-000E-0000-0200-000002010000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-00001B000000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-00001C000000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="275" id="{00000000-000E-0000-0200-00000B010000}">
-            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J40)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="276" id="{00000000-000E-0000-0200-00000C010000}">
-            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="285" id="{00000000-000E-0000-0200-000015010000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J41)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="286" id="{00000000-000E-0000-0200-000016010000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-000025000000}">
-            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-000026000000}">
-            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-00002F000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000030000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000039000000}">
-            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-00003A000000}">
-            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-000045000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-000046000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-00004F000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000050000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="97" id="{00000000-000E-0000-0200-000059000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="98" id="{00000000-000E-0000-0200-00005A000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="107" id="{00000000-000E-0000-0200-000063000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="108" id="{00000000-000E-0000-0200-000064000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="117" id="{00000000-000E-0000-0200-00006D000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="118" id="{00000000-000E-0000-0200-00006E000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="127" id="{00000000-000E-0000-0200-000077000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="128" id="{00000000-000E-0000-0200-000078000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000009000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-00000A000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000081000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-000082000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="147" id="{00000000-000E-0000-0200-00008B000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="148" id="{00000000-000E-0000-0200-00008C000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="157" id="{00000000-000E-0000-0200-000095000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="158" id="{00000000-000E-0000-0200-000096000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="167" id="{00000000-000E-0000-0200-00009F000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="168" id="{00000000-000E-0000-0200-0000A0000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="177" id="{00000000-000E-0000-0200-0000A9000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="178" id="{00000000-000E-0000-0200-0000AA000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="187" id="{00000000-000E-0000-0200-0000B3000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="188" id="{00000000-000E-0000-0200-0000B4000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="197" id="{00000000-000E-0000-0200-0000BD000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="198" id="{00000000-000E-0000-0200-0000BE000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="207" id="{00000000-000E-0000-0200-0000C7000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="208" id="{00000000-000E-0000-0200-0000C8000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-000013000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-000014000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="217" id="{00000000-000E-0000-0200-0000D1000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K32)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="218" id="{00000000-000E-0000-0200-0000D2000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="227" id="{00000000-000E-0000-0200-0000DB000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K33)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="228" id="{00000000-000E-0000-0200-0000DC000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="237" id="{00000000-000E-0000-0200-0000E5000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K34)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="238" id="{00000000-000E-0000-0200-0000E6000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="247" id="{00000000-000E-0000-0200-0000EF000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K35)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="248" id="{00000000-000E-0000-0200-0000F0000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="257" id="{00000000-000E-0000-0200-0000F9000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K38)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="258" id="{00000000-000E-0000-0200-0000FA000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="267" id="{00000000-000E-0000-0200-000003010000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K39)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="268" id="{00000000-000E-0000-0200-000004010000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-00001D000000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-00001E000000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="277" id="{00000000-000E-0000-0200-00000D010000}">
-            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K40)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="278" id="{00000000-000E-0000-0200-00000E010000}">
-            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="287" id="{00000000-000E-0000-0200-000017010000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K41)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="288" id="{00000000-000E-0000-0200-000018010000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-000027000000}">
-            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000028000000}">
-            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>K5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000031000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-000032000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-00003B000000}">
-            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-00003C000000}">
-            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{33D68E71-D553-B040-8175-ED895A9C815B}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{E1B8132F-CE49-A741-AFF4-8503D113D276}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{DA942B19-8DC8-3D40-AECF-11213A99B5AF}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(G16)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{B046F495-62F8-E545-9D30-39A3A349067B}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{8F99AE53-0E16-7142-9017-54083AC096E9}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(G17)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{A2E2651E-B9C7-0B48-B1C0-5FB5856FDA9C}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{54767F60-D1F6-BD4F-8436-E36912893689}">

--- a/tests/databooks/progbook_hypertension_dyn.xlsx
+++ b/tests/databooks/progbook_hypertension_dyn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="43">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>Best</t>
   </si>
   <si>
     <t>Annual number of new diagnoses</t>
@@ -2166,9 +2163,7 @@
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6">
@@ -2189,9 +2184,7 @@
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6">
@@ -2212,9 +2205,7 @@
       <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="6">
         <v>1</v>
@@ -2235,9 +2226,7 @@
       <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="6">
         <v>1</v>
@@ -2249,7 +2238,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
@@ -2295,9 +2284,7 @@
       <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2318,9 +2305,7 @@
       <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2341,9 +2326,7 @@
       <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2364,9 +2347,7 @@
       <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2378,7 +2359,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
@@ -2424,9 +2405,7 @@
       <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2447,9 +2426,7 @@
       <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2470,9 +2447,7 @@
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2493,9 +2468,7 @@
       <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2507,7 +2480,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>35</v>
@@ -2553,9 +2526,7 @@
       <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2576,9 +2547,7 @@
       <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2599,9 +2568,7 @@
       <c r="C22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2622,9 +2589,7 @@
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2636,7 +2601,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
@@ -2682,9 +2647,7 @@
       <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2705,9 +2668,7 @@
       <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2728,9 +2689,7 @@
       <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2751,9 +2710,7 @@
       <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2764,51 +2721,211 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="1" priority="83">
+      <formula>COUNTIF(F10:K10,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="84">
+      <formula>AND(COUNTIF(F10:K10,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="95">
+      <formula>COUNTIF(F11:K11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="96">
+      <formula>AND(COUNTIF(F11:K11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="107">
+      <formula>COUNTIF(F14:K14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="108">
+      <formula>AND(COUNTIF(F14:K14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="1" priority="119">
+      <formula>COUNTIF(F15:K15,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="120">
+      <formula>AND(COUNTIF(F15:K15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="1" priority="131">
+      <formula>COUNTIF(F16:K16,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="132">
+      <formula>AND(COUNTIF(F16:K16,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="1" priority="143">
+      <formula>COUNTIF(F17:K17,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="144">
+      <formula>AND(COUNTIF(F17:K17,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>COUNTIF(F2:K2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(COUNTIF(F2:K2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="1" priority="155">
+      <formula>COUNTIF(F20:K20,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="156">
+      <formula>AND(COUNTIF(F20:K20,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="1" priority="167">
+      <formula>COUNTIF(F21:K21,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="168">
+      <formula>AND(COUNTIF(F21:K21,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="1" priority="179">
+      <formula>COUNTIF(F22:K22,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="180">
+      <formula>AND(COUNTIF(F22:K22,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="1" priority="191">
+      <formula>COUNTIF(F23:K23,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="192">
+      <formula>AND(COUNTIF(F23:K23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="1" priority="203">
+      <formula>COUNTIF(F26:K26,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="204">
+      <formula>AND(COUNTIF(F26:K26,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="1" priority="215">
+      <formula>COUNTIF(F27:K27,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="216">
+      <formula>AND(COUNTIF(F27:K27,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="1" priority="227">
+      <formula>COUNTIF(F28:K28,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="228">
+      <formula>AND(COUNTIF(F28:K28,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="1" priority="239">
+      <formula>COUNTIF(F29:K29,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="240">
+      <formula>AND(COUNTIF(F29:K29,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="23">
+      <formula>COUNTIF(F3:K3,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="24">
+      <formula>AND(COUNTIF(F3:K3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="1" priority="35">
+      <formula>COUNTIF(F4:K4,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="36">
+      <formula>AND(COUNTIF(F4:K4,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>COUNTIF(F5:K5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>AND(COUNTIF(F5:K5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F8:K8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F8:K8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="1" priority="71">
+      <formula>COUNTIF(F9:K9,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="72">
+      <formula>AND(COUNTIF(F9:K9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="91">
+    <cfRule type="expression" dxfId="2" priority="109">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
+    <cfRule type="expression" dxfId="3" priority="110">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="2" priority="121">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="2" priority="111">
+    <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2821,154 +2938,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="2" priority="131">
+    <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="2" priority="141">
+    <cfRule type="expression" dxfId="2" priority="169">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
+    <cfRule type="expression" dxfId="3" priority="170">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="151">
+    <cfRule type="expression" dxfId="2" priority="181">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
+    <cfRule type="expression" dxfId="3" priority="182">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="2" priority="161">
+    <cfRule type="expression" dxfId="2" priority="193">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="162">
+    <cfRule type="expression" dxfId="3" priority="194">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="2" priority="171">
+    <cfRule type="expression" dxfId="2" priority="205">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="3" priority="206">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="2" priority="181">
+    <cfRule type="expression" dxfId="2" priority="217">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="182">
+    <cfRule type="expression" dxfId="3" priority="218">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="2" priority="191">
+    <cfRule type="expression" dxfId="2" priority="229">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="192">
+    <cfRule type="expression" dxfId="3" priority="230">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="2" priority="99">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="2" priority="111">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="3" priority="112">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="2" priority="103">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2981,154 +3098,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="2" priority="133">
+    <cfRule type="expression" dxfId="2" priority="159">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
+    <cfRule type="expression" dxfId="3" priority="160">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="2" priority="143">
+    <cfRule type="expression" dxfId="2" priority="171">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="144">
+    <cfRule type="expression" dxfId="3" priority="172">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="2" priority="153">
+    <cfRule type="expression" dxfId="2" priority="183">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
+    <cfRule type="expression" dxfId="3" priority="184">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="2" priority="163">
+    <cfRule type="expression" dxfId="2" priority="195">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
+    <cfRule type="expression" dxfId="3" priority="196">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="2" priority="173">
+    <cfRule type="expression" dxfId="2" priority="207">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="174">
+    <cfRule type="expression" dxfId="3" priority="208">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="2" priority="183">
+    <cfRule type="expression" dxfId="2" priority="219">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="184">
+    <cfRule type="expression" dxfId="3" priority="220">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="2" priority="193">
+    <cfRule type="expression" dxfId="2" priority="231">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="194">
+    <cfRule type="expression" dxfId="3" priority="232">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
+    <cfRule type="expression" dxfId="3" priority="90">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="101">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="102">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="2" priority="113">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
+    <cfRule type="expression" dxfId="3" priority="114">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="2" priority="105">
+    <cfRule type="expression" dxfId="2" priority="125">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="2" priority="115">
+    <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
+    <cfRule type="expression" dxfId="3" priority="138">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3141,154 +3258,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="3" priority="150">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="2" priority="135">
+    <cfRule type="expression" dxfId="2" priority="161">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
+    <cfRule type="expression" dxfId="3" priority="162">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="2" priority="145">
+    <cfRule type="expression" dxfId="2" priority="173">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
+    <cfRule type="expression" dxfId="3" priority="174">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="2" priority="155">
+    <cfRule type="expression" dxfId="2" priority="185">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156">
+    <cfRule type="expression" dxfId="3" priority="186">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="2" priority="165">
+    <cfRule type="expression" dxfId="2" priority="197">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
+    <cfRule type="expression" dxfId="3" priority="198">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="2" priority="175">
+    <cfRule type="expression" dxfId="2" priority="209">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="176">
+    <cfRule type="expression" dxfId="3" priority="210">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="2" priority="185">
+    <cfRule type="expression" dxfId="2" priority="221">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="186">
+    <cfRule type="expression" dxfId="3" priority="222">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="2" priority="195">
+    <cfRule type="expression" dxfId="2" priority="233">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="196">
+    <cfRule type="expression" dxfId="3" priority="234">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="79">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="80">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="2" priority="107">
+    <cfRule type="expression" dxfId="2" priority="127">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
+    <cfRule type="expression" dxfId="3" priority="128">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
+    <cfRule type="expression" dxfId="3" priority="140">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3301,154 +3418,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="2" priority="163">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
+    <cfRule type="expression" dxfId="3" priority="164">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="2" priority="147">
+    <cfRule type="expression" dxfId="2" priority="175">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
+    <cfRule type="expression" dxfId="3" priority="176">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="2" priority="157">
+    <cfRule type="expression" dxfId="2" priority="187">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="158">
+    <cfRule type="expression" dxfId="3" priority="188">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="2" priority="167">
+    <cfRule type="expression" dxfId="2" priority="199">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="168">
+    <cfRule type="expression" dxfId="3" priority="200">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="2" priority="177">
+    <cfRule type="expression" dxfId="2" priority="211">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="178">
+    <cfRule type="expression" dxfId="3" priority="212">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="2" priority="187">
+    <cfRule type="expression" dxfId="2" priority="223">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="188">
+    <cfRule type="expression" dxfId="3" priority="224">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="2" priority="197">
+    <cfRule type="expression" dxfId="2" priority="235">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="198">
+    <cfRule type="expression" dxfId="3" priority="236">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="105">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="106">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="3" priority="118">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="2" priority="119">
+    <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
+    <cfRule type="expression" dxfId="3" priority="142">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3461,106 +3578,106 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="3" priority="154">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="2" priority="139">
+    <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
+    <cfRule type="expression" dxfId="3" priority="166">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="2" priority="149">
+    <cfRule type="expression" dxfId="2" priority="177">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
+    <cfRule type="expression" dxfId="3" priority="178">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="2" priority="159">
+    <cfRule type="expression" dxfId="2" priority="189">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="160">
+    <cfRule type="expression" dxfId="3" priority="190">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="2" priority="169">
+    <cfRule type="expression" dxfId="2" priority="201">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="170">
+    <cfRule type="expression" dxfId="3" priority="202">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="2" priority="179">
+    <cfRule type="expression" dxfId="2" priority="213">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="180">
+    <cfRule type="expression" dxfId="3" priority="214">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="2" priority="189">
+    <cfRule type="expression" dxfId="2" priority="225">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="190">
+    <cfRule type="expression" dxfId="3" priority="226">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="2" priority="199">
+    <cfRule type="expression" dxfId="2" priority="237">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="200">
+    <cfRule type="expression" dxfId="3" priority="238">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_hypertension_dyn.xlsx
+++ b/tests/databooks/progbook_hypertension_dyn.xlsx
@@ -2061,31 +2061,31 @@
   </conditionalFormatting>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
